--- a/notes/samplingfunctionsCriterium06072014.xlsx
+++ b/notes/samplingfunctionsCriterium06072014.xlsx
@@ -27,15 +27,9 @@
     <t>git hist | head -1: * f798bdd 2014-06-07 | added/renamed for new sampling functions (HEAD, origin/master, origin/HEAD, master) [mars0i]</t>
   </si>
   <si>
-    <t>Clojure 1.6.0</t>
-  </si>
-  <si>
     <t>(load-file "test/samplingfunctions.clj")</t>
   </si>
   <si>
-    <t xml:space="preserve">Sample size = 5 , stuff size = 25 </t>
-  </si>
-  <si>
     <t>function</t>
   </si>
   <si>
@@ -72,21 +66,9 @@
     <t>bigml_sample_twister_without_repl</t>
   </si>
   <si>
-    <t xml:space="preserve">Sample size = 1 , stuff size = 25 </t>
-  </si>
-  <si>
-    <t>Sample size = 25 , stuff size = 50</t>
-  </si>
-  <si>
-    <t>All times are in microseconds</t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
-    <t>wow--twister's really bad</t>
-  </si>
-  <si>
     <t>again, twister loses</t>
   </si>
   <si>
@@ -133,6 +115,24 @@
   </si>
   <si>
     <t>why is this so much slower than incanter?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample size = 5 , collection size = 25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample size = 1 , collection size = 25 </t>
+  </si>
+  <si>
+    <t>Sample size = 25 , collection size = 50</t>
+  </si>
+  <si>
+    <t>Clojure 1.6.0, Java 1.6.0_65, OS X 10.6.8, 8-core 2.3Ghz i7</t>
+  </si>
+  <si>
+    <t>wow--twister's really slow</t>
+  </si>
+  <si>
+    <t>All times are in microseconds.  "repl" means "replacement".</t>
   </si>
 </sst>
 </file>
@@ -140,7 +140,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -234,9 +234,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -582,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -603,41 +603,41 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="2" customFormat="1">
       <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="6">
         <v>582.29243799999995</v>
@@ -648,7 +648,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="6">
         <v>2268.933</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="7">
         <v>245.19687200000001</v>
@@ -668,12 +668,12 @@
         <v>275.42942900000003</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="7">
         <v>424.504569</v>
@@ -684,7 +684,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="7">
         <v>254.157353</v>
@@ -693,12 +693,12 @@
         <v>281.90627000000001</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="8">
         <v>322.68877800000001</v>
@@ -707,12 +707,12 @@
         <v>310.03853900000001</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="8">
         <v>470.21865300000002</v>
@@ -721,12 +721,12 @@
         <v>392.26505100000003</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="8">
         <v>925.14297799999997</v>
@@ -735,12 +735,12 @@
         <v>594.65276100000005</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="8">
         <v>1114.2850000000001</v>
@@ -749,28 +749,28 @@
         <v>680.59099500000002</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="2" customFormat="1">
       <c r="A21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B22" s="6">
         <v>127.475178</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B23" s="6">
         <v>128.044736</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B24" s="7">
         <v>77.349115999999995</v>
@@ -801,12 +801,12 @@
         <v>178.07234399999999</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B25" s="7">
         <v>354.20448199999998</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B26" s="7">
         <v>38.023656000000003</v>
@@ -826,12 +826,12 @@
         <v>113.26262699999999</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B27" s="8">
         <v>177.77281099999999</v>
@@ -840,12 +840,12 @@
         <v>258.19427999999999</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B28" s="8">
         <v>163.40455399999999</v>
@@ -854,12 +854,12 @@
         <v>249.62027399999999</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29" s="8">
         <v>760.41072899999995</v>
@@ -868,12 +868,12 @@
         <v>492.06578400000001</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B30" s="8">
         <v>749.309482</v>
@@ -882,28 +882,28 @@
         <v>487.09512999999998</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="2" customFormat="1">
       <c r="A33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B34" s="6">
         <v>852.63932</v>
@@ -912,12 +912,12 @@
         <v>868.60327099999995</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B35" s="6">
         <v>12706.621999999999</v>
@@ -928,7 +928,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B36" s="7">
         <v>1064.7180000000001</v>
@@ -937,12 +937,12 @@
         <v>640.74320699999998</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B37" s="7">
         <v>817.67317300000002</v>
@@ -951,12 +951,12 @@
         <v>671.99154699999997</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B38" s="7">
         <v>1525.951</v>
@@ -965,12 +965,12 @@
         <v>983.08091899999999</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B39" s="8">
         <v>904.65232600000002</v>
@@ -979,12 +979,12 @@
         <v>593.05247199999997</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B40" s="8">
         <v>1935.1289999999999</v>
@@ -993,12 +993,12 @@
         <v>1221.5219999999999</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B41" s="8">
         <v>1622.021</v>
@@ -1007,12 +1007,12 @@
         <v>888.98804900000005</v>
       </c>
       <c r="D41" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B42" s="8">
         <v>2714.7280000000001</v>
@@ -1021,7 +1021,7 @@
         <v>1525.723</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
